--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.831386</v>
+        <v>129.8768743333333</v>
       </c>
       <c r="H2">
-        <v>155.494158</v>
+        <v>389.630623</v>
       </c>
       <c r="I2">
-        <v>0.06647612792467962</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="J2">
-        <v>0.06647612792467963</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.169425</v>
+        <v>1.14906</v>
       </c>
       <c r="N2">
-        <v>0.508275</v>
+        <v>3.44718</v>
       </c>
       <c r="O2">
-        <v>0.0005062042177611658</v>
+        <v>0.00207941733452039</v>
       </c>
       <c r="P2">
-        <v>0.0005062042177611658</v>
+        <v>0.002079417334520391</v>
       </c>
       <c r="Q2">
-        <v>8.781532573050001</v>
+        <v>149.23632122146</v>
       </c>
       <c r="R2">
-        <v>79.03379315745001</v>
+        <v>1343.12689099314</v>
       </c>
       <c r="S2">
-        <v>3.365049633590364E-05</v>
+        <v>0.0003311378092100927</v>
       </c>
       <c r="T2">
-        <v>3.365049633590364E-05</v>
+        <v>0.0003311378092100928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.831386</v>
+        <v>129.8768743333333</v>
       </c>
       <c r="H3">
-        <v>155.494158</v>
+        <v>389.630623</v>
       </c>
       <c r="I3">
-        <v>0.06647612792467962</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="J3">
-        <v>0.06647612792467963</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>69.07203766666666</v>
+        <v>0.169425</v>
       </c>
       <c r="N3">
-        <v>207.216113</v>
+        <v>0.508275</v>
       </c>
       <c r="O3">
-        <v>0.2063718860630059</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="P3">
-        <v>0.2063718860630059</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="Q3">
-        <v>3580.099446107539</v>
+        <v>22.00438943392501</v>
       </c>
       <c r="R3">
-        <v>32220.89501496785</v>
+        <v>198.039504905325</v>
       </c>
       <c r="S3">
-        <v>0.01371880389798179</v>
+        <v>4.882514692480808E-05</v>
       </c>
       <c r="T3">
-        <v>0.01371880389798179</v>
+        <v>4.882514692480808E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.831386</v>
+        <v>129.8768743333333</v>
       </c>
       <c r="H4">
-        <v>155.494158</v>
+        <v>389.630623</v>
       </c>
       <c r="I4">
-        <v>0.06647612792467962</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="J4">
-        <v>0.06647612792467963</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>234.189438</v>
+        <v>155.2856546666667</v>
       </c>
       <c r="N4">
-        <v>702.5683140000001</v>
+        <v>465.8569639999999</v>
       </c>
       <c r="O4">
-        <v>0.6997059540842085</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="P4">
-        <v>0.6997059540842085</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="Q4">
-        <v>12138.36315810107</v>
+        <v>20168.01545691206</v>
       </c>
       <c r="R4">
-        <v>109245.2684229096</v>
+        <v>181512.1391122086</v>
       </c>
       <c r="S4">
-        <v>0.04651374251336185</v>
+        <v>0.04475044948747238</v>
       </c>
       <c r="T4">
-        <v>0.04651374251336186</v>
+        <v>0.04475044948747238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.831386</v>
+        <v>129.8768743333333</v>
       </c>
       <c r="H5">
-        <v>155.494158</v>
+        <v>389.630623</v>
       </c>
       <c r="I5">
-        <v>0.06647612792467962</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="J5">
-        <v>0.06647612792467963</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>31.266034</v>
+        <v>0.160095</v>
       </c>
       <c r="N5">
-        <v>93.798102</v>
+        <v>0.480285</v>
       </c>
       <c r="O5">
-        <v>0.09341595563502443</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="P5">
-        <v>0.09341595563502442</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="Q5">
-        <v>1620.561876943124</v>
+        <v>20.792638196395</v>
       </c>
       <c r="R5">
-        <v>14585.05689248812</v>
+        <v>187.133743767555</v>
       </c>
       <c r="S5">
-        <v>0.00620993101700008</v>
+        <v>4.613641373426087E-05</v>
       </c>
       <c r="T5">
-        <v>0.00620993101700008</v>
+        <v>4.613641373426087E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>225.5249733333333</v>
+        <v>129.8768743333333</v>
       </c>
       <c r="H6">
-        <v>676.57492</v>
+        <v>389.630623</v>
       </c>
       <c r="I6">
-        <v>0.2892461138800461</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="J6">
-        <v>0.2892461138800461</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.169425</v>
+        <v>275.0431623333333</v>
       </c>
       <c r="N6">
-        <v>0.508275</v>
+        <v>825.129487</v>
       </c>
       <c r="O6">
-        <v>0.0005062042177611658</v>
+        <v>0.4977368627375759</v>
       </c>
       <c r="P6">
-        <v>0.0005062042177611658</v>
+        <v>0.497736862737576</v>
       </c>
       <c r="Q6">
-        <v>38.20956860700001</v>
+        <v>35721.74623060894</v>
       </c>
       <c r="R6">
-        <v>343.886117463</v>
+        <v>321495.7160754804</v>
       </c>
       <c r="S6">
-        <v>0.0001464176028171058</v>
+        <v>0.07926234505880972</v>
       </c>
       <c r="T6">
-        <v>0.0001464176028171058</v>
+        <v>0.07926234505880973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>225.5249733333333</v>
+        <v>129.8768743333333</v>
       </c>
       <c r="H7">
-        <v>676.57492</v>
+        <v>389.630623</v>
       </c>
       <c r="I7">
-        <v>0.2892461138800461</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="J7">
-        <v>0.2892461138800461</v>
+        <v>0.1592454788718343</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>69.07203766666666</v>
+        <v>120.7800903333333</v>
       </c>
       <c r="N7">
-        <v>207.216113</v>
+        <v>362.340271</v>
       </c>
       <c r="O7">
-        <v>0.2063718860630059</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="P7">
-        <v>0.2063718860630059</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="Q7">
-        <v>15577.46945285399</v>
+        <v>15686.54061419098</v>
       </c>
       <c r="R7">
-        <v>140197.2250756859</v>
+        <v>141178.8655277189</v>
       </c>
       <c r="S7">
-        <v>0.0596922660578201</v>
+        <v>0.034806584955683</v>
       </c>
       <c r="T7">
-        <v>0.0596922660578201</v>
+        <v>0.034806584955683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>676.57492</v>
       </c>
       <c r="I8">
-        <v>0.2892461138800461</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="J8">
-        <v>0.2892461138800461</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>234.189438</v>
+        <v>1.14906</v>
       </c>
       <c r="N8">
-        <v>702.5683140000001</v>
+        <v>3.44718</v>
       </c>
       <c r="O8">
-        <v>0.6997059540842085</v>
+        <v>0.00207941733452039</v>
       </c>
       <c r="P8">
-        <v>0.6997059540842085</v>
+        <v>0.002079417334520391</v>
       </c>
       <c r="Q8">
-        <v>52815.56675989833</v>
+        <v>259.1417258584</v>
       </c>
       <c r="R8">
-        <v>475340.1008390849</v>
+        <v>2332.2755327256</v>
       </c>
       <c r="S8">
-        <v>0.2023872280775873</v>
+        <v>0.0005750049496887049</v>
       </c>
       <c r="T8">
-        <v>0.2023872280775873</v>
+        <v>0.000575004949688705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,55 +983,55 @@
         <v>676.57492</v>
       </c>
       <c r="I9">
-        <v>0.2892461138800461</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="J9">
-        <v>0.2892461138800461</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>31.266034</v>
+        <v>0.169425</v>
       </c>
       <c r="N9">
-        <v>93.798102</v>
+        <v>0.508275</v>
       </c>
       <c r="O9">
-        <v>0.09341595563502443</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="P9">
-        <v>0.09341595563502442</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="Q9">
-        <v>7051.271484089094</v>
+        <v>38.20956860700001</v>
       </c>
       <c r="R9">
-        <v>63461.44335680184</v>
+        <v>343.886117463</v>
       </c>
       <c r="S9">
-        <v>0.02702020214182161</v>
+        <v>8.478252972082297E-05</v>
       </c>
       <c r="T9">
-        <v>0.02702020214182161</v>
+        <v>8.478252972082297E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>133.547002</v>
+        <v>225.5249733333333</v>
       </c>
       <c r="H10">
-        <v>400.6410060000001</v>
+        <v>676.57492</v>
       </c>
       <c r="I10">
-        <v>0.1712801503882116</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="J10">
-        <v>0.1712801503882116</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.169425</v>
+        <v>155.2856546666667</v>
       </c>
       <c r="N10">
-        <v>0.508275</v>
+        <v>465.8569639999999</v>
       </c>
       <c r="O10">
-        <v>0.0005062042177611658</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="P10">
-        <v>0.0005062042177611658</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="Q10">
-        <v>22.62620081385001</v>
+        <v>35020.79312774921</v>
       </c>
       <c r="R10">
-        <v>203.63580732465</v>
+        <v>315187.1381497429</v>
       </c>
       <c r="S10">
-        <v>8.67027345452795E-05</v>
+        <v>0.07770701273126231</v>
       </c>
       <c r="T10">
-        <v>8.670273454527951E-05</v>
+        <v>0.07770701273126231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>133.547002</v>
+        <v>225.5249733333333</v>
       </c>
       <c r="H11">
-        <v>400.6410060000001</v>
+        <v>676.57492</v>
       </c>
       <c r="I11">
-        <v>0.1712801503882116</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="J11">
-        <v>0.1712801503882116</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>69.07203766666666</v>
+        <v>0.160095</v>
       </c>
       <c r="N11">
-        <v>207.216113</v>
+        <v>0.480285</v>
       </c>
       <c r="O11">
-        <v>0.2063718860630059</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="P11">
-        <v>0.2063718860630059</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="Q11">
-        <v>9224.363552414408</v>
+        <v>36.10542060580001</v>
       </c>
       <c r="R11">
-        <v>83019.27197172969</v>
+        <v>324.9487854522</v>
       </c>
       <c r="S11">
-        <v>0.03534740768077052</v>
+        <v>8.011367328112823E-05</v>
       </c>
       <c r="T11">
-        <v>0.03534740768077053</v>
+        <v>8.011367328112823E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>133.547002</v>
+        <v>225.5249733333333</v>
       </c>
       <c r="H12">
-        <v>400.6410060000001</v>
+        <v>676.57492</v>
       </c>
       <c r="I12">
-        <v>0.1712801503882116</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="J12">
-        <v>0.1712801503882116</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>234.189438</v>
+        <v>275.0431623333333</v>
       </c>
       <c r="N12">
-        <v>702.5683140000001</v>
+        <v>825.129487</v>
       </c>
       <c r="O12">
-        <v>0.6997059540842085</v>
+        <v>0.4977368627375759</v>
       </c>
       <c r="P12">
-        <v>0.6997059540842085</v>
+        <v>0.497736862737576</v>
       </c>
       <c r="Q12">
-        <v>31275.29734496489</v>
+        <v>62029.10185074068</v>
       </c>
       <c r="R12">
-        <v>281477.676104684</v>
+        <v>558261.9166566661</v>
       </c>
       <c r="S12">
-        <v>0.1198457410430703</v>
+        <v>0.1376352668439426</v>
       </c>
       <c r="T12">
-        <v>0.1198457410430704</v>
+        <v>0.1376352668439426</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>133.547002</v>
+        <v>225.5249733333333</v>
       </c>
       <c r="H13">
-        <v>400.6410060000001</v>
+        <v>676.57492</v>
       </c>
       <c r="I13">
-        <v>0.1712801503882116</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="J13">
-        <v>0.1712801503882116</v>
+        <v>0.2765221488457619</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.266034</v>
+        <v>120.7800903333333</v>
       </c>
       <c r="N13">
-        <v>93.798102</v>
+        <v>362.340271</v>
       </c>
       <c r="O13">
-        <v>0.09341595563502443</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="P13">
-        <v>0.09341595563502442</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="Q13">
-        <v>4175.485105130068</v>
+        <v>27238.9266516226</v>
       </c>
       <c r="R13">
-        <v>37579.36594617062</v>
+        <v>245150.3398646034</v>
       </c>
       <c r="S13">
-        <v>0.01600029892982549</v>
+        <v>0.06043996811786641</v>
       </c>
       <c r="T13">
-        <v>0.01600029892982549</v>
+        <v>0.06043996811786641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>132.9968926666667</v>
+        <v>135.169815</v>
       </c>
       <c r="H14">
-        <v>398.990678</v>
+        <v>405.509445</v>
       </c>
       <c r="I14">
-        <v>0.1705746099572606</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="J14">
-        <v>0.1705746099572606</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.169425</v>
+        <v>1.14906</v>
       </c>
       <c r="N14">
-        <v>0.508275</v>
+        <v>3.44718</v>
       </c>
       <c r="O14">
-        <v>0.0005062042177611658</v>
+        <v>0.00207941733452039</v>
       </c>
       <c r="P14">
-        <v>0.0005062042177611658</v>
+        <v>0.002079417334520391</v>
       </c>
       <c r="Q14">
-        <v>22.53299854005</v>
+        <v>155.3182276239</v>
       </c>
       <c r="R14">
-        <v>202.79698686045</v>
+        <v>1397.8640486151</v>
       </c>
       <c r="S14">
-        <v>8.634558700333106E-05</v>
+        <v>0.0003446328427611825</v>
       </c>
       <c r="T14">
-        <v>8.634558700333108E-05</v>
+        <v>0.0003446328427611826</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>132.9968926666667</v>
+        <v>135.169815</v>
       </c>
       <c r="H15">
-        <v>398.990678</v>
+        <v>405.509445</v>
       </c>
       <c r="I15">
-        <v>0.1705746099572606</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="J15">
-        <v>0.1705746099572606</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>69.07203766666666</v>
+        <v>0.169425</v>
       </c>
       <c r="N15">
-        <v>207.216113</v>
+        <v>0.508275</v>
       </c>
       <c r="O15">
-        <v>0.2063718860630059</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="P15">
-        <v>0.2063718860630059</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="Q15">
-        <v>9186.366379821622</v>
+        <v>22.901145906375</v>
       </c>
       <c r="R15">
-        <v>82677.29741839461</v>
+        <v>206.110313157375</v>
       </c>
       <c r="S15">
-        <v>0.03520180397134145</v>
+        <v>5.08149438539444E-05</v>
       </c>
       <c r="T15">
-        <v>0.03520180397134146</v>
+        <v>5.08149438539444E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>132.9968926666667</v>
+        <v>135.169815</v>
       </c>
       <c r="H16">
-        <v>398.990678</v>
+        <v>405.509445</v>
       </c>
       <c r="I16">
-        <v>0.1705746099572606</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="J16">
-        <v>0.1705746099572606</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,43 +1429,43 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>234.189438</v>
+        <v>155.2856546666667</v>
       </c>
       <c r="N16">
-        <v>702.5683140000001</v>
+        <v>465.8569639999999</v>
       </c>
       <c r="O16">
-        <v>0.6997059540842085</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="P16">
-        <v>0.6997059540842085</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="Q16">
-        <v>31146.46754935299</v>
+        <v>20989.93321344722</v>
       </c>
       <c r="R16">
-        <v>280318.2079441769</v>
+        <v>188909.398921025</v>
       </c>
       <c r="S16">
-        <v>0.1193520702026868</v>
+        <v>0.04657418812577639</v>
       </c>
       <c r="T16">
-        <v>0.1193520702026868</v>
+        <v>0.04657418812577639</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,61 +1473,61 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>132.9968926666667</v>
+        <v>135.169815</v>
       </c>
       <c r="H17">
-        <v>398.990678</v>
+        <v>405.509445</v>
       </c>
       <c r="I17">
-        <v>0.1705746099572606</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="J17">
-        <v>0.1705746099572606</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>31.266034</v>
+        <v>0.160095</v>
       </c>
       <c r="N17">
-        <v>93.798102</v>
+        <v>0.480285</v>
       </c>
       <c r="O17">
-        <v>0.09341595563502443</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="P17">
-        <v>0.09341595563502442</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="Q17">
-        <v>4158.285368010351</v>
+        <v>21.640011532425</v>
       </c>
       <c r="R17">
-        <v>37424.56831209316</v>
+        <v>194.760103791825</v>
       </c>
       <c r="S17">
-        <v>0.01593439019622905</v>
+        <v>4.801663530351027E-05</v>
       </c>
       <c r="T17">
-        <v>0.01593439019622905</v>
+        <v>4.801663530351027E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>75.93050033333334</v>
+        <v>135.169815</v>
       </c>
       <c r="H18">
-        <v>227.791501</v>
+        <v>405.509445</v>
       </c>
       <c r="I18">
-        <v>0.09738434649506759</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="J18">
-        <v>0.09738434649506761</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.169425</v>
+        <v>275.0431623333333</v>
       </c>
       <c r="N18">
-        <v>0.508275</v>
+        <v>825.129487</v>
       </c>
       <c r="O18">
-        <v>0.0005062042177611658</v>
+        <v>0.4977368627375759</v>
       </c>
       <c r="P18">
-        <v>0.0005062042177611658</v>
+        <v>0.497736862737576</v>
       </c>
       <c r="Q18">
-        <v>12.864525018975</v>
+        <v>37177.53336961164</v>
       </c>
       <c r="R18">
-        <v>115.780725170775</v>
+        <v>334597.8003265047</v>
       </c>
       <c r="S18">
-        <v>4.929636693971801E-05</v>
+        <v>0.08249256515496324</v>
       </c>
       <c r="T18">
-        <v>4.929636693971802E-05</v>
+        <v>0.08249256515496325</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>75.93050033333334</v>
+        <v>135.169815</v>
       </c>
       <c r="H19">
-        <v>227.791501</v>
+        <v>405.509445</v>
       </c>
       <c r="I19">
-        <v>0.09738434649506759</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="J19">
-        <v>0.09738434649506761</v>
+        <v>0.1657352937478858</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>69.07203766666666</v>
+        <v>120.7800903333333</v>
       </c>
       <c r="N19">
-        <v>207.216113</v>
+        <v>362.340271</v>
       </c>
       <c r="O19">
-        <v>0.2063718860630059</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="P19">
-        <v>0.2063718860630059</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="Q19">
-        <v>5244.674379072846</v>
+        <v>16325.82246603996</v>
       </c>
       <c r="R19">
-        <v>47202.06941165561</v>
+        <v>146932.4021943596</v>
       </c>
       <c r="S19">
-        <v>0.02009739125920038</v>
+        <v>0.03622507604522748</v>
       </c>
       <c r="T19">
-        <v>0.02009739125920038</v>
+        <v>0.03622507604522748</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>75.93050033333334</v>
+        <v>109.8163223333333</v>
       </c>
       <c r="H20">
-        <v>227.791501</v>
+        <v>329.448967</v>
       </c>
       <c r="I20">
-        <v>0.09738434649506759</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="J20">
-        <v>0.09738434649506761</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>234.189438</v>
+        <v>1.14906</v>
       </c>
       <c r="N20">
-        <v>702.5683140000001</v>
+        <v>3.44718</v>
       </c>
       <c r="O20">
-        <v>0.6997059540842085</v>
+        <v>0.00207941733452039</v>
       </c>
       <c r="P20">
-        <v>0.6997059540842085</v>
+        <v>0.002079417334520391</v>
       </c>
       <c r="Q20">
-        <v>17782.12120012215</v>
+        <v>126.18554334034</v>
       </c>
       <c r="R20">
-        <v>160039.0908010993</v>
+        <v>1135.66989006306</v>
       </c>
       <c r="S20">
-        <v>0.06814040707719843</v>
+        <v>0.0002799908496383974</v>
       </c>
       <c r="T20">
-        <v>0.06814040707719843</v>
+        <v>0.0002799908496383975</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>75.93050033333334</v>
+        <v>109.8163223333333</v>
       </c>
       <c r="H21">
-        <v>227.791501</v>
+        <v>329.448967</v>
       </c>
       <c r="I21">
-        <v>0.09738434649506759</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="J21">
-        <v>0.09738434649506761</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>31.266034</v>
+        <v>0.169425</v>
       </c>
       <c r="N21">
-        <v>93.798102</v>
+        <v>0.508275</v>
       </c>
       <c r="O21">
-        <v>0.09341595563502443</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="P21">
-        <v>0.09341595563502442</v>
+        <v>0.0003066030336980812</v>
       </c>
       <c r="Q21">
-        <v>2374.045605059012</v>
+        <v>18.605630411325</v>
       </c>
       <c r="R21">
-        <v>21366.4104455311</v>
+        <v>167.450673701925</v>
       </c>
       <c r="S21">
-        <v>0.009097251791729081</v>
+        <v>4.128370119922849E-05</v>
       </c>
       <c r="T21">
-        <v>0.009097251791729081</v>
+        <v>4.128370119922849E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>159.8684793333333</v>
+        <v>109.8163223333333</v>
       </c>
       <c r="H22">
-        <v>479.605438</v>
+        <v>329.448967</v>
       </c>
       <c r="I22">
-        <v>0.2050386513547345</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="J22">
-        <v>0.2050386513547345</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.169425</v>
+        <v>155.2856546666667</v>
       </c>
       <c r="N22">
-        <v>0.508275</v>
+        <v>465.8569639999999</v>
       </c>
       <c r="O22">
-        <v>0.0005062042177611658</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="P22">
-        <v>0.0005062042177611658</v>
+        <v>0.2810155101702381</v>
       </c>
       <c r="Q22">
-        <v>27.08571711105001</v>
+        <v>17052.89950661735</v>
       </c>
       <c r="R22">
-        <v>243.77145399945</v>
+        <v>153476.0955595562</v>
       </c>
       <c r="S22">
-        <v>0.0001037914301198278</v>
+        <v>0.03783837431185037</v>
       </c>
       <c r="T22">
-        <v>0.0001037914301198278</v>
+        <v>0.03783837431185037</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>159.8684793333333</v>
+        <v>109.8163223333333</v>
       </c>
       <c r="H23">
-        <v>479.605438</v>
+        <v>329.448967</v>
       </c>
       <c r="I23">
-        <v>0.2050386513547345</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="J23">
-        <v>0.2050386513547345</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>69.07203766666666</v>
+        <v>0.160095</v>
       </c>
       <c r="N23">
-        <v>207.216113</v>
+        <v>0.480285</v>
       </c>
       <c r="O23">
-        <v>0.2063718860630059</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="P23">
-        <v>0.2063718860630059</v>
+        <v>0.0002897188294519363</v>
       </c>
       <c r="Q23">
-        <v>11042.44162622472</v>
+        <v>17.581044123955</v>
       </c>
       <c r="R23">
-        <v>99381.9746360225</v>
+        <v>158.229397115595</v>
       </c>
       <c r="S23">
-        <v>0.04231421319589165</v>
+        <v>3.901026497559679E-05</v>
       </c>
       <c r="T23">
-        <v>0.04231421319589166</v>
+        <v>3.901026497559679E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>159.8684793333333</v>
+        <v>109.8163223333333</v>
       </c>
       <c r="H24">
-        <v>479.605438</v>
+        <v>329.448967</v>
       </c>
       <c r="I24">
-        <v>0.2050386513547345</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="J24">
-        <v>0.2050386513547345</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>234.189438</v>
+        <v>275.0431623333333</v>
       </c>
       <c r="N24">
-        <v>702.5683140000001</v>
+        <v>825.129487</v>
       </c>
       <c r="O24">
-        <v>0.6997059540842085</v>
+        <v>0.4977368627375759</v>
       </c>
       <c r="P24">
-        <v>0.6997059540842085</v>
+        <v>0.497736862737576</v>
       </c>
       <c r="Q24">
-        <v>37439.50932898795</v>
+        <v>30204.22857037666</v>
       </c>
       <c r="R24">
-        <v>336955.5839608916</v>
+        <v>271838.0571333899</v>
       </c>
       <c r="S24">
-        <v>0.1434667651703039</v>
+        <v>0.06701962361316352</v>
       </c>
       <c r="T24">
-        <v>0.1434667651703039</v>
+        <v>0.06701962361316353</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>159.8684793333333</v>
+        <v>109.8163223333333</v>
       </c>
       <c r="H25">
-        <v>479.605438</v>
+        <v>329.448967</v>
       </c>
       <c r="I25">
-        <v>0.2050386513547345</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="J25">
-        <v>0.2050386513547345</v>
+        <v>0.1346487042260693</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,772 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.266034</v>
+        <v>120.7800903333333</v>
       </c>
       <c r="N25">
-        <v>93.798102</v>
+        <v>362.340271</v>
       </c>
       <c r="O25">
-        <v>0.09341595563502443</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="P25">
-        <v>0.09341595563502442</v>
+        <v>0.2185718878945155</v>
       </c>
       <c r="Q25">
-        <v>4998.453310364298</v>
+        <v>13263.62533149445</v>
       </c>
       <c r="R25">
-        <v>44986.07979327868</v>
+        <v>119372.6279834501</v>
       </c>
       <c r="S25">
-        <v>0.01915388155841912</v>
+        <v>0.0294304214852422</v>
       </c>
       <c r="T25">
-        <v>0.01915388155841912</v>
+        <v>0.0294304214852422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>68.17323566666667</v>
+      </c>
+      <c r="H26">
+        <v>204.519707</v>
+      </c>
+      <c r="I26">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="J26">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>1.14906</v>
+      </c>
+      <c r="N26">
+        <v>3.44718</v>
+      </c>
+      <c r="O26">
+        <v>0.00207941733452039</v>
+      </c>
+      <c r="P26">
+        <v>0.002079417334520391</v>
+      </c>
+      <c r="Q26">
+        <v>78.33513817514</v>
+      </c>
+      <c r="R26">
+        <v>705.01624357626</v>
+      </c>
+      <c r="S26">
+        <v>0.0001738164397726769</v>
+      </c>
+      <c r="T26">
+        <v>0.0001738164397726769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>68.17323566666667</v>
+      </c>
+      <c r="H27">
+        <v>204.519707</v>
+      </c>
+      <c r="I27">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="J27">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.169425</v>
+      </c>
+      <c r="N27">
+        <v>0.508275</v>
+      </c>
+      <c r="O27">
+        <v>0.0003066030336980812</v>
+      </c>
+      <c r="P27">
+        <v>0.0003066030336980812</v>
+      </c>
+      <c r="Q27">
+        <v>11.550250452825</v>
+      </c>
+      <c r="R27">
+        <v>103.952254075425</v>
+      </c>
+      <c r="S27">
+        <v>2.562864455162113E-05</v>
+      </c>
+      <c r="T27">
+        <v>2.562864455162113E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>68.17323566666667</v>
+      </c>
+      <c r="H28">
+        <v>204.519707</v>
+      </c>
+      <c r="I28">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="J28">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>155.2856546666667</v>
+      </c>
+      <c r="N28">
+        <v>465.8569639999999</v>
+      </c>
+      <c r="O28">
+        <v>0.2810155101702381</v>
+      </c>
+      <c r="P28">
+        <v>0.2810155101702381</v>
+      </c>
+      <c r="Q28">
+        <v>10586.32553124328</v>
+      </c>
+      <c r="R28">
+        <v>95276.92978118954</v>
+      </c>
+      <c r="S28">
+        <v>0.0234898087496992</v>
+      </c>
+      <c r="T28">
+        <v>0.0234898087496992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>68.17323566666667</v>
+      </c>
+      <c r="H29">
+        <v>204.519707</v>
+      </c>
+      <c r="I29">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="J29">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.160095</v>
+      </c>
+      <c r="N29">
+        <v>0.480285</v>
+      </c>
+      <c r="O29">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="P29">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="Q29">
+        <v>10.914194164055</v>
+      </c>
+      <c r="R29">
+        <v>98.22774747649501</v>
+      </c>
+      <c r="S29">
+        <v>2.421731060641455E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.421731060641455E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>68.17323566666667</v>
+      </c>
+      <c r="H30">
+        <v>204.519707</v>
+      </c>
+      <c r="I30">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="J30">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>275.0431623333333</v>
+      </c>
+      <c r="N30">
+        <v>825.129487</v>
+      </c>
+      <c r="O30">
+        <v>0.4977368627375759</v>
+      </c>
+      <c r="P30">
+        <v>0.497736862737576</v>
+      </c>
+      <c r="Q30">
+        <v>18750.58232425559</v>
+      </c>
+      <c r="R30">
+        <v>168755.2409183003</v>
+      </c>
+      <c r="S30">
+        <v>0.04160533241136095</v>
+      </c>
+      <c r="T30">
+        <v>0.04160533241136096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>68.17323566666667</v>
+      </c>
+      <c r="H31">
+        <v>204.519707</v>
+      </c>
+      <c r="I31">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="J31">
+        <v>0.08358901163665011</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>120.7800903333333</v>
+      </c>
+      <c r="N31">
+        <v>362.340271</v>
+      </c>
+      <c r="O31">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="P31">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="Q31">
+        <v>8233.969562135624</v>
+      </c>
+      <c r="R31">
+        <v>74105.7260592206</v>
+      </c>
+      <c r="S31">
+        <v>0.01827020808065924</v>
+      </c>
+      <c r="T31">
+        <v>0.01827020808065924</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>147.0153046666667</v>
+      </c>
+      <c r="H32">
+        <v>441.045914</v>
+      </c>
+      <c r="I32">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="J32">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>1.14906</v>
+      </c>
+      <c r="N32">
+        <v>3.44718</v>
+      </c>
+      <c r="O32">
+        <v>0.00207941733452039</v>
+      </c>
+      <c r="P32">
+        <v>0.002079417334520391</v>
+      </c>
+      <c r="Q32">
+        <v>168.92940598028</v>
+      </c>
+      <c r="R32">
+        <v>1520.36465382252</v>
+      </c>
+      <c r="S32">
+        <v>0.0003748344434493357</v>
+      </c>
+      <c r="T32">
+        <v>0.0003748344434493358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>147.0153046666667</v>
+      </c>
+      <c r="H33">
+        <v>441.045914</v>
+      </c>
+      <c r="I33">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="J33">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.169425</v>
+      </c>
+      <c r="N33">
+        <v>0.508275</v>
+      </c>
+      <c r="O33">
+        <v>0.0003066030336980812</v>
+      </c>
+      <c r="P33">
+        <v>0.0003066030336980812</v>
+      </c>
+      <c r="Q33">
+        <v>24.90806799315001</v>
+      </c>
+      <c r="R33">
+        <v>224.17261193835</v>
+      </c>
+      <c r="S33">
+        <v>5.52680674476561E-05</v>
+      </c>
+      <c r="T33">
+        <v>5.52680674476561E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>147.0153046666667</v>
+      </c>
+      <c r="H34">
+        <v>441.045914</v>
+      </c>
+      <c r="I34">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="J34">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>155.2856546666667</v>
+      </c>
+      <c r="N34">
+        <v>465.8569639999999</v>
+      </c>
+      <c r="O34">
+        <v>0.2810155101702381</v>
+      </c>
+      <c r="P34">
+        <v>0.2810155101702381</v>
+      </c>
+      <c r="Q34">
+        <v>22829.36783118279</v>
+      </c>
+      <c r="R34">
+        <v>205464.3104806451</v>
+      </c>
+      <c r="S34">
+        <v>0.05065567676417746</v>
+      </c>
+      <c r="T34">
+        <v>0.05065567676417746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>147.0153046666667</v>
+      </c>
+      <c r="H35">
+        <v>441.045914</v>
+      </c>
+      <c r="I35">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="J35">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.160095</v>
+      </c>
+      <c r="N35">
+        <v>0.480285</v>
+      </c>
+      <c r="O35">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="P35">
+        <v>0.0002897188294519363</v>
+      </c>
+      <c r="Q35">
+        <v>23.53641520061</v>
+      </c>
+      <c r="R35">
+        <v>211.82773680549</v>
+      </c>
+      <c r="S35">
+        <v>5.222453155102555E-05</v>
+      </c>
+      <c r="T35">
+        <v>5.222453155102555E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>147.0153046666667</v>
+      </c>
+      <c r="H36">
+        <v>441.045914</v>
+      </c>
+      <c r="I36">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="J36">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>275.0431623333333</v>
+      </c>
+      <c r="N36">
+        <v>825.129487</v>
+      </c>
+      <c r="O36">
+        <v>0.4977368627375759</v>
+      </c>
+      <c r="P36">
+        <v>0.497736862737576</v>
+      </c>
+      <c r="Q36">
+        <v>40435.55430691846</v>
+      </c>
+      <c r="R36">
+        <v>363919.9887622662</v>
+      </c>
+      <c r="S36">
+        <v>0.08972172965533594</v>
+      </c>
+      <c r="T36">
+        <v>0.08972172965533595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>147.0153046666667</v>
+      </c>
+      <c r="H37">
+        <v>441.045914</v>
+      </c>
+      <c r="I37">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="J37">
+        <v>0.1802593626717986</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>120.7800903333333</v>
+      </c>
+      <c r="N37">
+        <v>362.340271</v>
+      </c>
+      <c r="O37">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="P37">
+        <v>0.2185718878945155</v>
+      </c>
+      <c r="Q37">
+        <v>17756.52177802252</v>
+      </c>
+      <c r="R37">
+        <v>159808.6960022027</v>
+      </c>
+      <c r="S37">
+        <v>0.03939962920983717</v>
+      </c>
+      <c r="T37">
+        <v>0.03939962920983717</v>
       </c>
     </row>
   </sheetData>
